--- a/PROJECT To-Do List.xlsx
+++ b/PROJECT To-Do List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matthew.WAYNE\Saved Games\My_Missions\Moose Lua\MOOSE-2.7.1\JTF-1\FUN-MAP_BLACKPOOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Saved Games\JTF_GITHUB\SYRIA_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7875" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="To-Do List" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -44,46 +44,130 @@
     <t>BLACKPOOL TO-DO LIST</t>
   </si>
   <si>
-    <t>Modify Carrier spawn naming so that squadron land/sea spans together</t>
-  </si>
-  <si>
     <t>3-Low</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Change F18 AI to cary 2 doube pylon of 120s instead of 4 single pylons</t>
-  </si>
-  <si>
-    <t>How do we deal with tankers in clouds?</t>
-  </si>
-  <si>
     <t>2-Normal</t>
   </si>
   <si>
-    <t>Plot all METAR and see if there are open FL?   -- Moved to FL200, 220, 240 to see how it works --- need to update on Server 1</t>
-  </si>
-  <si>
-    <t>Change FARP harriers to Hot starts</t>
-  </si>
-  <si>
     <t>1-High</t>
   </si>
   <si>
+    <t>Switch gazzell to opposite versions</t>
+  </si>
+  <si>
+    <t>add A-29 spawn (will have to sanitize)</t>
+  </si>
+  <si>
+    <t>Switch Niquora back to unlimited spawns</t>
+  </si>
+  <si>
+    <t>Fix red air (broken due to DSMC slot qty)</t>
+  </si>
+  <si>
+    <t>Some unknown DSMC logisitcs error spawning message in game</t>
+  </si>
+  <si>
+    <t>Cant see draw zones unless slotted blue</t>
+  </si>
+  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Add "Admin" Menu to Blackpool with BASECAP options, AIRBOSS start/stop, more?</t>
-  </si>
-  <si>
-    <t>turn off Everytime a plan lands on the map?</t>
-  </si>
-  <si>
-    <t>commented out, along with "has killed"</t>
-  </si>
-  <si>
-    <t>Change breifing tanker freq</t>
+    <t>Was already quick align?</t>
+  </si>
+  <si>
+    <t>Standardize radio channels on spawns</t>
+  </si>
+  <si>
+    <t>Switched dependant airbases back to unlimited until other solution is found</t>
+  </si>
+  <si>
+    <t>Testing unlimited secondary warehouse</t>
+  </si>
+  <si>
+    <t>Megiddo F14 no quick allign</t>
+  </si>
+  <si>
+    <t>Get rid of spawned AI flights dying message</t>
+  </si>
+  <si>
+    <t>F117 are set to invulnerable, needs to be turned off</t>
+  </si>
+  <si>
+    <t>Don’t know code location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot starts at akrotiri- maneuvering flaps are bugged </t>
+  </si>
+  <si>
+    <t>Switch 111 Akrotiri starts to cold</t>
+  </si>
+  <si>
+    <t>Need to standardize pressure settings</t>
+  </si>
+  <si>
+    <t>Megiddo A-10II spawns blowing up?</t>
+  </si>
+  <si>
+    <t>Nord (Grohiik) reportsed rnadom death while parked</t>
+  </si>
+  <si>
+    <t>Add more A-10II spawns</t>
+  </si>
+  <si>
+    <t>Nord/Blizz request</t>
+  </si>
+  <si>
+    <t>APACHE - hide f10 visible units</t>
+  </si>
+  <si>
+    <t>Add different engagement ranges to the Redair groups instead of one single range</t>
+  </si>
+  <si>
+    <t>in Airforce.lua</t>
+  </si>
+  <si>
+    <t>Add East Redair CAP</t>
+  </si>
+  <si>
+    <t>Add varying waypoint sizes for Redfor CAP flights</t>
+  </si>
+  <si>
+    <t>airforce.lua</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Need to add countdown to intercept code</t>
+  </si>
+  <si>
+    <t>Mods (UH-60L, A-4, A-29, Hercules) are not getting DSMC auto slots created</t>
+  </si>
+  <si>
+    <t>Change FakeUNCargo to Runway spawn</t>
+  </si>
+  <si>
+    <t>Move BFM AWACS commands to BFM.lua script from Mission.lua</t>
+  </si>
+  <si>
+    <t>Need to redo menu structure to Moose code</t>
+  </si>
+  <si>
+    <t>Cleanup Menus</t>
+  </si>
+  <si>
+    <t>Finish moving ApacheCAS sounds to raido instead of sound to all</t>
+  </si>
+  <si>
+    <t>Decide what to do with ApacheCAS messages to all</t>
+  </si>
+  <si>
+    <t>Ground jets facing wrong directions</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
@@ -782,12 +866,17 @@
   <autoFilter ref="B3:F43">
     <filterColumn colId="2">
       <filters blank="1">
-        <filter val="Not Started"/>
+        <filter val="In Progress"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="50%"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:F44">
-    <sortCondition ref="C3:C44"/>
+  <sortState ref="B14:F43">
+    <sortCondition ref="C3:C43"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Task" dataDxfId="4" dataCellStyle="Normal"/>
@@ -1109,7 +1198,7 @@
   <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1216,7 @@
     <row r="1" spans="2:6" ht="19.5" x14ac:dyDescent="0.3">
       <c r="F1" s="2">
         <f ca="1">YEAR(TODAY())</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1157,241 +1246,363 @@
       </c>
     </row>
     <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="12" spans="2:6" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
+      <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
